--- a/database/sia/expdata/2004.xlsx
+++ b/database/sia/expdata/2004.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Q</t>
   </si>
@@ -61,39 +58,54 @@
     <t>pi</t>
   </si>
   <si>
-    <t>AUL-0</t>
+    <t>AUL-0-PT-INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -103,52 +115,116 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -172,80 +248,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -277,20 +295,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -302,7 +316,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -323,16 +337,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,23 +346,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -412,666 +415,1559 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="3">
         <v>10.6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0.732</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.78</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.36</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.7</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.174</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.174</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="5">
         <v>10.6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0.736</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>0.61</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>0.32</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>0.48</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>0.174</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>0.246</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="5">
         <v>10.6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.748</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>0.53</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>0.31</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>1.04</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>0.174</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="5">
         <v>10.6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.752</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>0.64</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>0.39</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>3.66</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>0.174</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>0.612</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="5">
         <v>10.6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.727</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>0.63</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>0.32</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>1.68</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>0.246</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>0.174</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="5">
         <v>10.6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.733</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>0.29</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>1.47</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>0.245</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>0.246</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="5">
         <v>10.6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.746</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>0.46</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>0.31</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>1.89</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>0.245</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="5">
         <v>10.6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.75</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>0.57</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>0.35</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>2.47</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>0.245</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>0.611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="5">
         <v>10.6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0.724</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>0.55</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>0.31</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>1.19</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>0.38</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>0.174</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="5">
         <v>10.6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>0.731</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>0.46</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>0.31</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>1.86</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>0.38</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>0.245</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="5">
         <v>10.6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0.744</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>0.53</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>0.3</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>2.6</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>0.379</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>0.379</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="5">
         <v>10.6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>0.749</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>0.75</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>0.37</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>2.96</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>0.379</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>0.612</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="5">
         <v>10.6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0.717</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>12</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>0.63</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>0.39</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>1.57</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>0.612</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>0.174</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="5">
         <v>10.6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>0.725</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>0.57</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>0.35</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>2.48</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>0.611</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>0.245</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="5">
         <v>10.6</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>0.738</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>0.86</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>0.37</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>4.2</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>0.612</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>0.379</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="5">
         <v>10.6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>0.745</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>1.43</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>0.52</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>5.53</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>0.615</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>0.615</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/database/sia/expdata/2004.xlsx
+++ b/database/sia/expdata/2004.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sia/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,14 +74,14 @@
     <t>pi</t>
   </si>
   <si>
-    <t>AUL-0</t>
+    <t>AUL-0-PT-INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +144,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,12 +195,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -209,14 +227,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -243,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,12 +485,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.6</v>
       </c>
       <c r="B2">
-        <v>0.732</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -495,18 +517,18 @@
         <v>0.7</v>
       </c>
       <c r="K2">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L2">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.6</v>
       </c>
       <c r="B3">
-        <v>0.736</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -533,13 +555,13 @@
         <v>0.48</v>
       </c>
       <c r="K3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L3">
         <v>0.246</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.6</v>
       </c>
@@ -571,13 +593,13 @@
         <v>1.04</v>
       </c>
       <c r="K4">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L4">
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10.6</v>
       </c>
@@ -609,18 +631,18 @@
         <v>3.66</v>
       </c>
       <c r="K5">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L5">
-        <v>0.612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10.6</v>
       </c>
       <c r="B6">
-        <v>0.727</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -650,15 +672,15 @@
         <v>0.246</v>
       </c>
       <c r="L6">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10.6</v>
       </c>
       <c r="B7">
-        <v>0.733</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -679,7 +701,7 @@
         <v>0.5</v>
       </c>
       <c r="I7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J7">
         <v>1.47</v>
@@ -691,7 +713,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10.6</v>
       </c>
@@ -729,7 +751,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10.6</v>
       </c>
@@ -752,27 +774,27 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I9">
         <v>0.35</v>
       </c>
       <c r="J9">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="K9">
         <v>0.245</v>
       </c>
       <c r="L9">
-        <v>0.611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10.6</v>
       </c>
       <c r="B10">
-        <v>0.724</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -790,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I10">
         <v>0.31</v>
@@ -802,15 +824,15 @@
         <v>0.38</v>
       </c>
       <c r="L10">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10.6</v>
       </c>
       <c r="B11">
-        <v>0.731</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -843,12 +865,12 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10.6</v>
       </c>
       <c r="B12">
-        <v>0.744</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -881,7 +903,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10.6</v>
       </c>
@@ -916,15 +938,15 @@
         <v>0.379</v>
       </c>
       <c r="L13">
-        <v>0.612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10.6</v>
       </c>
       <c r="B14">
-        <v>0.717</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -951,18 +973,18 @@
         <v>1.57</v>
       </c>
       <c r="K14">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="L14">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10.6</v>
       </c>
       <c r="B15">
-        <v>0.725</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -980,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="H15">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I15">
         <v>0.35</v>
@@ -989,18 +1011,18 @@
         <v>2.48</v>
       </c>
       <c r="K15">
-        <v>0.611</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="L15">
         <v>0.245</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10.6</v>
       </c>
       <c r="B16">
-        <v>0.738</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1027,13 +1049,13 @@
         <v>4.2</v>
       </c>
       <c r="K16">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="L16">
         <v>0.379</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10.6</v>
       </c>
@@ -1065,10 +1087,10 @@
         <v>5.53</v>
       </c>
       <c r="K17">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="L17">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
   </sheetData>
